--- a/book_rental/management/commands/uploads/warehouse_upload.xlsx
+++ b/book_rental/management/commands/uploads/warehouse_upload.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -19,37 +22,16 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Street 1</t>
+    <t>Contact Name</t>
   </si>
   <si>
-    <t>Street 2</t>
-  </si>
-  <si>
-    <t>Upazila</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Country</t>
+    <t>Contact No</t>
   </si>
   <si>
     <t>DU Warehouse</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Burichang</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
+    <t>Sohel</t>
   </si>
 </sst>
 </file>
@@ -125,40 +107,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="1">
+        <v>1.623067403E9</v>
       </c>
     </row>
   </sheetData>
